--- a/datos.xlsx
+++ b/datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="257">
   <si>
     <t>RFC</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Escuela</t>
   </si>
   <si>
+    <t>Documentación</t>
+  </si>
+  <si>
     <t>AALM7312279Z2</t>
   </si>
   <si>
@@ -775,7 +778,13 @@
     <t>INSPECTOR</t>
   </si>
   <si>
+    <t>nan, Supervision 11 de Educacion Fisica</t>
+  </si>
+  <si>
     <t>Supervisión 11 de Educación Física</t>
+  </si>
+  <si>
+    <t>Hoja de Datos, Horarios, FUP</t>
   </si>
 </sst>
 </file>
@@ -1133,13 +1142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,1529 +1179,1538 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="F3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="F4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="F5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="F6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="F7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="F10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="F11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="F12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="F13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>251</v>
+      </c>
+      <c r="J14" t="s">
+        <v>254</v>
+      </c>
+      <c r="K14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="F15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="F17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="F18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="F19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="F25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="F26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="F28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="F29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="F30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="F31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="F32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="F33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="F36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="F37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="F38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="F39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="F40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="F41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="F42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="F44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="F45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="F46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="F47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="F48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="F49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="F54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="F55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="F56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="F57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="F59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="F60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="F61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I62" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I64" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="F65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="F66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="F67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="F68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H69" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="F70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J71" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J74" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="F75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="F76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I79" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="F80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="F81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E82" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="F86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="F87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="F88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="F89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="F90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E92" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="F93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="F94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E95" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="F96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="F97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E98" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="F99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="F100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="F102" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="F103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D105" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G105" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D110" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E110" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D111" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F111" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="F112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="F113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="F114" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B115" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D115" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F115" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
